--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7347,13 +7350,13 @@
         <v>694</v>
       </c>
       <c r="N98">
-        <v>48978</v>
+        <v>48979</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>48978</v>
+        <v>48979</v>
       </c>
       <c r="Q98">
         <v>204</v>
@@ -7365,13 +7368,13 @@
         <v>204</v>
       </c>
       <c r="T98">
-        <v>97909</v>
+        <v>97911</v>
       </c>
       <c r="U98">
         <v>10438</v>
       </c>
       <c r="V98">
-        <v>87472</v>
+        <v>87473</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7415,13 +7418,13 @@
         <v>712</v>
       </c>
       <c r="N99">
-        <v>47954</v>
+        <v>47956</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>47954</v>
+        <v>47956</v>
       </c>
       <c r="Q99">
         <v>205</v>
@@ -7433,13 +7436,13 @@
         <v>205</v>
       </c>
       <c r="T99">
-        <v>96523</v>
+        <v>96525</v>
       </c>
       <c r="U99">
         <v>10517</v>
       </c>
       <c r="V99">
-        <v>86007</v>
+        <v>86008</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7465,31 +7468,31 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12481</v>
+        <v>12484</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100">
-        <v>12479</v>
+        <v>12483</v>
       </c>
       <c r="K100">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="L100">
         <v>36</v>
       </c>
       <c r="M100">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="N100">
-        <v>47923</v>
+        <v>47915</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>47923</v>
+        <v>47915</v>
       </c>
       <c r="Q100">
         <v>206</v>
@@ -7501,13 +7504,13 @@
         <v>206</v>
       </c>
       <c r="T100">
-        <v>94321</v>
+        <v>94308</v>
       </c>
       <c r="U100">
         <v>8819</v>
       </c>
       <c r="V100">
-        <v>85502</v>
+        <v>85490</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7533,31 +7536,31 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>12593</v>
+        <v>12596</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101">
-        <v>12592</v>
+        <v>12596</v>
       </c>
       <c r="K101">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L101">
         <v>37</v>
       </c>
       <c r="M101">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="N101">
-        <v>49048</v>
+        <v>49055</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>49048</v>
+        <v>49055</v>
       </c>
       <c r="Q101">
         <v>207</v>
@@ -7569,13 +7572,13 @@
         <v>207</v>
       </c>
       <c r="T101">
-        <v>97440</v>
+        <v>97441</v>
       </c>
       <c r="U101">
         <v>8708</v>
       </c>
       <c r="V101">
-        <v>88732</v>
+        <v>88733</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7619,13 +7622,13 @@
         <v>694</v>
       </c>
       <c r="N102">
-        <v>48957</v>
+        <v>48964</v>
       </c>
       <c r="O102">
         <v>2</v>
       </c>
       <c r="P102">
-        <v>48956</v>
+        <v>48962</v>
       </c>
       <c r="Q102">
         <v>208</v>
@@ -7637,13 +7640,81 @@
         <v>208</v>
       </c>
       <c r="T102">
-        <v>98983</v>
+        <v>98989</v>
       </c>
       <c r="U102">
         <v>8719</v>
       </c>
       <c r="V102">
-        <v>90264</v>
+        <v>90270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>36834</v>
+      </c>
+      <c r="C103">
+        <v>8807</v>
+      </c>
+      <c r="D103">
+        <v>28027</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>12328</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>12328</v>
+      </c>
+      <c r="K103">
+        <v>683</v>
+      </c>
+      <c r="L103">
+        <v>36</v>
+      </c>
+      <c r="M103">
+        <v>648</v>
+      </c>
+      <c r="N103">
+        <v>49620</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <v>49618</v>
+      </c>
+      <c r="Q103">
+        <v>209</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>209</v>
+      </c>
+      <c r="T103">
+        <v>99687</v>
+      </c>
+      <c r="U103">
+        <v>8857</v>
+      </c>
+      <c r="V103">
+        <v>90830</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7717,6 +7720,74 @@
         <v>90830</v>
       </c>
     </row>
+    <row r="104" spans="1:22">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104">
+        <v>43846</v>
+      </c>
+      <c r="C104">
+        <v>9910</v>
+      </c>
+      <c r="D104">
+        <v>33935</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>13051</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>13051</v>
+      </c>
+      <c r="K104">
+        <v>698</v>
+      </c>
+      <c r="L104">
+        <v>58</v>
+      </c>
+      <c r="M104">
+        <v>640</v>
+      </c>
+      <c r="N104">
+        <v>50925</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104">
+        <v>50924</v>
+      </c>
+      <c r="Q104">
+        <v>211</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>211</v>
+      </c>
+      <c r="T104">
+        <v>108743</v>
+      </c>
+      <c r="U104">
+        <v>9982</v>
+      </c>
+      <c r="V104">
+        <v>98761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7788,6 +7791,74 @@
         <v>98761</v>
       </c>
     </row>
+    <row r="105" spans="1:22">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105">
+        <v>44138</v>
+      </c>
+      <c r="C105">
+        <v>10052</v>
+      </c>
+      <c r="D105">
+        <v>34085</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>13024</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>13024</v>
+      </c>
+      <c r="K105">
+        <v>711</v>
+      </c>
+      <c r="L105">
+        <v>57</v>
+      </c>
+      <c r="M105">
+        <v>654</v>
+      </c>
+      <c r="N105">
+        <v>51763</v>
+      </c>
+      <c r="O105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>51761</v>
+      </c>
+      <c r="Q105">
+        <v>203</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>203</v>
+      </c>
+      <c r="T105">
+        <v>109849</v>
+      </c>
+      <c r="U105">
+        <v>10122</v>
+      </c>
+      <c r="V105">
+        <v>99727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
+++ b/8/4/Títulos de deuda con apertura por mercado de emisión 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7859,6 +7862,74 @@
         <v>99727</v>
       </c>
     </row>
+    <row r="106" spans="1:22">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>43243</v>
+      </c>
+      <c r="C106">
+        <v>9032</v>
+      </c>
+      <c r="D106">
+        <v>34211</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>13268</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>13268</v>
+      </c>
+      <c r="K106">
+        <v>697</v>
+      </c>
+      <c r="L106">
+        <v>53</v>
+      </c>
+      <c r="M106">
+        <v>644</v>
+      </c>
+      <c r="N106">
+        <v>54856</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>54855</v>
+      </c>
+      <c r="Q106">
+        <v>204</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>204</v>
+      </c>
+      <c r="T106">
+        <v>112279</v>
+      </c>
+      <c r="U106">
+        <v>9097</v>
+      </c>
+      <c r="V106">
+        <v>103181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
